--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonli/Desktop/azure_function/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01718B89-BE54-4B4D-AEDF-4CD1AA81D7C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7084542B-32E5-9745-A5A5-7D493DC79969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2760" windowWidth="27640" windowHeight="16940" xr2:uid="{EA272284-358C-2D42-BA24-399353D0AA6C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fin_CMHP1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
